--- a/responses.xlsx
+++ b/responses.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="158">
   <si>
     <t>Timestamp</t>
   </si>
@@ -422,6 +422,69 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>Armaan</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Meghana</t>
+  </si>
+  <si>
+    <t>No specific experience as of now</t>
+  </si>
+  <si>
+    <t>Fariha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Communicating with locals in their language doesn't mean that your well versed in their language, this often leads me to paying more than the stipulated amount. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kritika Choudhury </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hindi, English </t>
+  </si>
+  <si>
+    <t>There has been a pattern that I recently saw that people from same place or common language tend to bond better and quicker and thus have a better trust than on anyone else. Thus can definitely influence teh financial decisions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ojas Tapadia </t>
+  </si>
+  <si>
+    <t>English,  Hindi</t>
+  </si>
+  <si>
+    <t>Kritika Bansal</t>
+  </si>
+  <si>
+    <t>Not been in any such situation yet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nivedita </t>
+  </si>
+  <si>
+    <t>When my parents couldn’t explain the concept of investments to our house help from because of the language barrier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayush Shukla </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diya </t>
+  </si>
+  <si>
+    <t>Keshav Aneja</t>
+  </si>
+  <si>
+    <t>Once I was explaining some stocks potential benefits to one of my friends father, at that time he was not much aware of the financial terms in his native language also, so due to that he was not able to invest in a potential stock aand benefit from it.</t>
+  </si>
+  <si>
+    <t>Vaibhavi</t>
+  </si>
+  <si>
+    <t>If language is our mother tongue or regional language, people do feel more comfortable to make financial decisions than the second language.</t>
   </si>
 </sst>
 </file>
@@ -2811,6 +2874,589 @@
         <v>136</v>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" s="2">
+        <v>45233.21129841435</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2">
+        <v>45233.26804572917</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2">
+        <v>45233.34975171296</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2">
+        <v>45233.37093978009</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2">
+        <v>45233.39195868056</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2">
+        <v>45233.4034321875</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2">
+        <v>45233.408783969906</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2">
+        <v>45233.43133723379</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2">
+        <v>45233.4408652662</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2">
+        <v>45233.470438379634</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O50" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P50" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q50" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2">
+        <v>45233.528169826386</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M51" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O51" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P51" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q51" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
